--- a/Resultados/RESULTADOS_11.xlsx
+++ b/Resultados/RESULTADOS_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.24</v>
+        <v>0.92</v>
       </c>
       <c r="E2" t="n">
-        <v>80.86</v>
+        <v>109.17</v>
       </c>
       <c r="F2" t="n">
         <v>70.94</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="E3" t="n">
-        <v>44.18</v>
+        <v>51.69</v>
       </c>
       <c r="F3" t="n">
         <v>38.95</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="E4" t="n">
-        <v>38.71</v>
+        <v>43.08</v>
       </c>
       <c r="F4" t="n">
         <v>34.49</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.74</v>
+        <v>2.53</v>
       </c>
       <c r="E5" t="n">
-        <v>36.45</v>
+        <v>39.51</v>
       </c>
       <c r="F5" t="n">
         <v>32.66</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="E6" t="n">
-        <v>35.19</v>
+        <v>37.54</v>
       </c>
       <c r="F6" t="n">
         <v>31.64</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="E7" t="n">
-        <v>34.29</v>
+        <v>36.18</v>
       </c>
       <c r="F7" t="n">
         <v>30.88</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="E8" t="n">
-        <v>34.2</v>
+        <v>35.82</v>
       </c>
       <c r="F8" t="n">
         <v>30.88</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="E9" t="n">
-        <v>33.68</v>
+        <v>35.06</v>
       </c>
       <c r="F9" t="n">
         <v>30.44</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="E10" t="n">
-        <v>33.36</v>
+        <v>34.57</v>
       </c>
       <c r="F10" t="n">
         <v>30.17</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="E11" t="n">
-        <v>33.12</v>
+        <v>34.19</v>
       </c>
       <c r="F11" t="n">
         <v>29.98</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="E12" t="n">
-        <v>32.84</v>
+        <v>33.77</v>
       </c>
       <c r="F12" t="n">
         <v>29.74</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="E13" t="n">
-        <v>32.71</v>
+        <v>33.57</v>
       </c>
       <c r="F13" t="n">
         <v>29.63</v>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="E14" t="n">
-        <v>32.7</v>
+        <v>33.49</v>
       </c>
       <c r="F14" t="n">
         <v>29.64</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>32.56</v>
+        <v>33.28</v>
       </c>
       <c r="F15" t="n">
         <v>29.52</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.08</v>
+        <v>3.02</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45</v>
+        <v>33.1</v>
       </c>
       <c r="F16" t="n">
         <v>29.44</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="E17" t="n">
-        <v>32.36</v>
+        <v>32.98</v>
       </c>
       <c r="F17" t="n">
         <v>29.36</v>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="E18" t="n">
-        <v>32.2</v>
+        <v>32.75</v>
       </c>
       <c r="F18" t="n">
         <v>29.22</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="E19" t="n">
-        <v>32.25</v>
+        <v>32.76</v>
       </c>
       <c r="F19" t="n">
         <v>29.28</v>
@@ -2033,6 +2033,826 @@
         <v>1</v>
       </c>
       <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>120</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16</v>
+      </c>
+      <c r="J20" t="n">
+        <v>264.89</v>
+      </c>
+      <c r="K20" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14</v>
+      </c>
+      <c r="N20" t="n">
+        <v>68.16</v>
+      </c>
+      <c r="O20" t="n">
+        <v>32903.54</v>
+      </c>
+      <c r="P20" t="n">
+        <v>393.34</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>125.66</v>
+      </c>
+      <c r="S20" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>12461.56</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X20" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>120</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>116.53</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>266.77</v>
+      </c>
+      <c r="K21" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>33135.76</v>
+      </c>
+      <c r="P21" t="n">
+        <v>388.35</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>123.28</v>
+      </c>
+      <c r="S21" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>11277.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X21" t="n">
+        <v>86.27</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>120</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="G22" t="n">
+        <v>124.24</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>268.66</v>
+      </c>
+      <c r="K22" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="O22" t="n">
+        <v>33369.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>380.68</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1194.86</v>
+      </c>
+      <c r="R22" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8791.02</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X22" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>120</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="G23" t="n">
+        <v>124.85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>270.57</v>
+      </c>
+      <c r="K23" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>70.84</v>
+      </c>
+      <c r="O23" t="n">
+        <v>33604.28</v>
+      </c>
+      <c r="P23" t="n">
+        <v>380.23</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R23" t="n">
+        <v>123.56</v>
+      </c>
+      <c r="S23" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11421.8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X23" t="n">
+        <v>87.39</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>120</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="F24" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>134.09</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>272.49</v>
+      </c>
+      <c r="K24" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L24" t="n">
+        <v>23</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>33840.76</v>
+      </c>
+      <c r="P24" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R24" t="n">
+        <v>120.61</v>
+      </c>
+      <c r="S24" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>9949.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X24" t="n">
+        <v>87.94</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>120</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="G25" t="n">
+        <v>134.22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>274.41</v>
+      </c>
+      <c r="K25" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L25" t="n">
+        <v>24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9</v>
+      </c>
+      <c r="N25" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="O25" t="n">
+        <v>34078.55</v>
+      </c>
+      <c r="P25" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R25" t="n">
+        <v>121.52</v>
+      </c>
+      <c r="S25" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10406.21</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X25" t="n">
+        <v>88.51000000000001</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>120</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29</v>
+      </c>
+      <c r="G26" t="n">
+        <v>144.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>276.35</v>
+      </c>
+      <c r="K26" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8</v>
+      </c>
+      <c r="N26" t="n">
+        <v>73.63</v>
+      </c>
+      <c r="O26" t="n">
+        <v>34317.79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>8950.459999999999</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X26" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>120</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="G27" t="n">
+        <v>145.12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>278.31</v>
+      </c>
+      <c r="K27" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="O27" t="n">
+        <v>34558.51</v>
+      </c>
+      <c r="P27" t="n">
+        <v>367.17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R27" t="n">
+        <v>119.56</v>
+      </c>
+      <c r="S27" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9432.370000000001</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X27" t="n">
+        <v>89.53</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>120</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E28" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>145.29</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>280.27</v>
+      </c>
+      <c r="K28" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L28" t="n">
+        <v>27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="O28" t="n">
+        <v>34800.73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>366.12</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R28" t="n">
+        <v>120.68</v>
+      </c>
+      <c r="S28" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9989.34</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X28" t="n">
+        <v>90.08</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>120</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="G29" t="n">
+        <v>157.93</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>282.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="L29" t="n">
+        <v>28</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>76.52</v>
+      </c>
+      <c r="O29" t="n">
+        <v>35044.49</v>
+      </c>
+      <c r="P29" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>116.83</v>
+      </c>
+      <c r="S29" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8069.42</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>90.53</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
         <v>10</v>
       </c>
     </row>
